--- a/bankole_sex_specific_splicing_2024/documentation/map_ref_anno_to_ref_genome_and_ujc_03ksb.xlsx
+++ b/bankole_sex_specific_splicing_2024/documentation/map_ref_anno_to_ref_genome_and_ujc_03ksb.xlsx
@@ -212,35 +212,9 @@
     <t xml:space="preserve">REMOVE DUPLICATE GENES FROM ORIGINAL ANNOTATION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Identify and remove duplicate gene identifiers (two geneIDs with the exact same coordinates) in GTF
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Utility Picks the first gene alphabetically for every gene with the same set of coordinates
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">Identify and remove duplicate gene identifiers (two geneIDs with the exact same coordinates) in GTF
+Utility Picks the first gene alphabetically for every gene with the same set of coordinates
 Output list of genes that were changed, along with a different file that lists their transcripts</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">SCRIPTS/submit_remove_duplicate_genes_from_ref_01ksb.sbatch</t>
@@ -848,7 +822,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">WXD has no ambig gene output or comparison to original genes because it is not using its own original genome</t>
+    <t xml:space="preserve">WXD has no ambig gene output or comparison to original genes because it is not using its own original genome (script throws an error which is good and normal)</t>
   </si>
   <si>
     <t xml:space="preserve">PROJ/design_files/df_gffcomp_and_id_ujc_02ksb.csv
@@ -932,7 +906,7 @@
   </si>
   <si>
     <t xml:space="preserve">SCRIPTS/
-submit_id_ujc_self_mapped_gtf_02ksb.sbatch</t>
+submit_id_ujc_self_mapped_gtf_03ksb.sbatch</t>
   </si>
   <si>
     <t xml:space="preserve">python/3.8
@@ -966,6 +940,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PROJ/design_files/df_gffcomp_and_id_ujc_03ksb.csv</t>
     </r>
@@ -974,7 +949,6 @@
     <t xml:space="preserve">PROJ/annotation_id_ujc_output/
 dmel650_2_dmel6_ujc_dscrptn.csv
 dmel650_2_dmel6_ujc_xscript_link.csv
-dmel650_2_dmel6_ujc_count.csv
 dmel650_2_dmel6_ujc.gtf</t>
   </si>
   <si>
@@ -983,42 +957,13 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/blue/mcintyre/share/references/dsim_fb202/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">/blue/mcintyre/share/references/dsim_fb202/
 dsimWXD_2_dsim2.gtf
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PROJ/design_files/df_gffcomp_and_id_ujc_03ksb.csv</t>
-    </r>
+PROJ/design_files/df_gffcomp_and_id_ujc_03ksb.csv</t>
   </si>
   <si>
     <t xml:space="preserve">PROJ/annotation_id_ujc_output/
-dsimWXD_2_dsim2_ujc_count.csv
-dsimWXD_2_dsim2_ujc_dscrptn.csv
+dsimWXD_2_dsim2_ujc_info.csv
 dsimWXD_2_dsim2_ujc.gtf
 dsimWXD_2_dsim2_ujc_xscript_link.csv</t>
   </si>
@@ -1028,43 +973,14 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/blue/mcintyre/share/references/dsim_fb202/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">/blue/mcintyre/share/references/dsim_fb202/
 dsim202_2_dsim2.gtf
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PROJ/design_files/df_gffcomp_and_id_ujc_03ksb.csv</t>
-    </r>
+PROJ/design_files/df_gffcomp_and_id_ujc_03ksb.csv</t>
   </si>
   <si>
     <t xml:space="preserve">
 PROJ/annotation_id_ujc_output/
-dsim202_2_dsim2_ujc_dscrptn.csv
-dsim202_2_dsim2_ujc_count.csv
+dsim202_2_dsim2_ujc_info.csv
 dsim202_2_dsim2_ujc_xscript_link.csv
 dsim202_2_dsim2_ujc.gtf</t>
   </si>
@@ -1080,9 +996,8 @@
   <si>
     <t xml:space="preserve">
 PROJ/annotation_id_ujc_output/
-dsan11_2_dsan1_ujc_count.csv
 dsan11_2_dsan1_ujc.gtf
-dsan11_2_dsan1_ujc_dscrptn.csv
+dsan11_2_dsan1_ujc_info.csv
 dsan11_2_dsan1_ujc_xscript_link.csv</t>
   </si>
   <si>
@@ -1098,8 +1013,7 @@
 PROJ/annotation_id_ujc_output/
 dyak21_2_dyak2_ujc.gtf
 dyak21_2_dyak2_ujc_xscript_link.csv
-dyak21_2_dyak2_ujc_count.csv
-dyak21_2_dyak2_ujc_dscrptn.csv
+dyak21_2_dyak2_ujc_info.csv
 </t>
   </si>
   <si>
@@ -1114,8 +1028,7 @@
   <si>
     <t xml:space="preserve">
 PROJ/annotation_id_ujc_output/
-dser11_2_dser1_ujc_count.csv
-dser11_2_dser1_ujc_dscrptn.csv
+dser11_2_dser1_ujc_info.csv
 dser11_2_dser1_ujc_xscript_link.csv
 dser11_2_dser1_ujc.gtf
 </t>
@@ -1161,7 +1074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1270,11 +1183,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1286,12 +1194,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -1428,7 +1330,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1481,19 +1383,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1588,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C78" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1824,7 +1718,7 @@
     <row r="16" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="1" customFormat="true" ht="202.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="1" customFormat="true" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2344,7 +2238,7 @@
       </c>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H55" s="2"/>
@@ -2386,7 +2280,7 @@
       <c r="H58" s="2"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" s="1" customFormat="true" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="1" customFormat="true" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
@@ -2536,7 +2430,7 @@
       <c r="H68" s="2"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="1" customFormat="true" ht="77.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="1" customFormat="true" ht="65.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -2569,7 +2463,7 @@
       <c r="H70" s="2"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="1" customFormat="true" ht="77.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="1" customFormat="true" ht="65.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
         <v>86</v>
       </c>
@@ -2582,7 +2476,7 @@
       <c r="E71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G71" s="10" t="s">
@@ -2599,7 +2493,7 @@
       <c r="H72" s="2"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="1" customFormat="true" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
         <v>91</v>
       </c>
@@ -2612,7 +2506,7 @@
       <c r="E73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="5" t="s">
         <v>141</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -2629,7 +2523,7 @@
       <c r="H74" s="2"/>
       <c r="AMJ74" s="0"/>
     </row>
-    <row r="75" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="1" customFormat="true" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -2659,7 +2553,7 @@
       <c r="H76" s="2"/>
       <c r="AMJ76" s="0"/>
     </row>
-    <row r="77" s="1" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="1" customFormat="true" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
@@ -2689,7 +2583,7 @@
       <c r="H78" s="2"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" s="1" customFormat="true" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="1" customFormat="true" ht="102.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
         <v>103</v>
       </c>
@@ -2747,7 +2641,7 @@
       <c r="D83" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="13" t="s">
         <v>158</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -2929,7 +2823,7 @@
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="16"/>
+      <c r="G173" s="14"/>
       <c r="H173" s="2"/>
       <c r="AMJ173" s="0"/>
     </row>
@@ -2940,7 +2834,7 @@
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="16"/>
+      <c r="G174" s="14"/>
       <c r="H174" s="2"/>
       <c r="AMJ174" s="0"/>
     </row>
